--- a/Export/ACME.xlsx
+++ b/Export/ACME.xlsx
@@ -25,210 +25,275 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812963</t>
+  </si>
+  <si>
+    <t>Calculate Client Security Hash</t>
+  </si>
+  <si>
+    <t>WI5</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>DB83622</t>
+  </si>
+  <si>
+    <t>Wilson Gau</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812971</t>
+  </si>
+  <si>
+    <t>KJ93404</t>
+  </si>
+  <si>
+    <t>Garret Reising</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812967</t>
+  </si>
+  <si>
+    <t>FY17206</t>
+  </si>
+  <si>
+    <t>Bradford Cleaver</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812964</t>
+  </si>
+  <si>
+    <t>TD88219</t>
+  </si>
+  <si>
+    <t>Caroll Eisenmann</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812960</t>
+  </si>
+  <si>
+    <t>AD55686</t>
+  </si>
+  <si>
+    <t>Digna Buffaloe</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812962</t>
+  </si>
+  <si>
+    <t>HR70321</t>
+  </si>
+  <si>
+    <t>Clement Paulette</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812958</t>
+  </si>
+  <si>
+    <t>AZ79829</t>
+  </si>
+  <si>
+    <t>Marylou Kenworthy</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812961</t>
+  </si>
+  <si>
+    <t>PW19167</t>
+  </si>
+  <si>
+    <t>Lavinia Froehlich</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812968</t>
+  </si>
+  <si>
+    <t>RN58561</t>
+  </si>
+  <si>
+    <t>Alvaro Dash</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812959</t>
+  </si>
+  <si>
+    <t>FT44139</t>
+  </si>
+  <si>
+    <t>Allan Camara</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812956</t>
+  </si>
+  <si>
+    <t>FP75053</t>
+  </si>
+  <si>
+    <t>Bud Baril</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812972</t>
+  </si>
+  <si>
+    <t>KK58395</t>
+  </si>
+  <si>
+    <t>Fritz Balke</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812966</t>
+  </si>
+  <si>
+    <t>BA92200</t>
+  </si>
+  <si>
+    <t>Mayra Monzon</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812965</t>
+  </si>
+  <si>
+    <t>AD88069</t>
+  </si>
+  <si>
+    <t>Craig Tober</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812969</t>
+  </si>
+  <si>
+    <t>EQ75283</t>
+  </si>
+  <si>
+    <t>Kizzie Kohen</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812957</t>
+  </si>
+  <si>
+    <t>XY37806</t>
+  </si>
+  <si>
+    <t>Eloy Sandoz</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98812970</t>
+  </si>
+  <si>
+    <t>RI52540</t>
+  </si>
+  <si>
+    <t>Camilla Escarcega</t>
+  </si>
   <si>
     <t>Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actions Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WIID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812963</t>
-  </si>
-  <si>
-    <t>Calculate Client Security Hash</t>
-  </si>
-  <si>
-    <t>WI5</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>DB83622</t>
-  </si>
-  <si>
-    <t>Wilson Gau</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812971</t>
-  </si>
-  <si>
-    <t>KJ93404</t>
-  </si>
-  <si>
-    <t>Garret Reising</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812967</t>
-  </si>
-  <si>
-    <t>FY17206</t>
-  </si>
-  <si>
-    <t>Bradford Cleaver</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812964</t>
-  </si>
-  <si>
-    <t>TD88219</t>
-  </si>
-  <si>
-    <t>Caroll Eisenmann</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812960</t>
-  </si>
-  <si>
-    <t>AD55686</t>
-  </si>
-  <si>
-    <t>Digna Buffaloe</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812962</t>
-  </si>
-  <si>
-    <t>HR70321</t>
-  </si>
-  <si>
-    <t>Clement Paulette</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812958</t>
-  </si>
-  <si>
-    <t>AZ79829</t>
-  </si>
-  <si>
-    <t>Marylou Kenworthy</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812961</t>
-  </si>
-  <si>
-    <t>PW19167</t>
-  </si>
-  <si>
-    <t>Lavinia Froehlich</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812968</t>
-  </si>
-  <si>
-    <t>RN58561</t>
-  </si>
-  <si>
-    <t>Alvaro Dash</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812959</t>
-  </si>
-  <si>
-    <t>FT44139</t>
-  </si>
-  <si>
-    <t>Allan Camara</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812956</t>
-  </si>
-  <si>
-    <t>FP75053</t>
-  </si>
-  <si>
-    <t>Bud Baril</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812972</t>
-  </si>
-  <si>
-    <t>KK58395</t>
-  </si>
-  <si>
-    <t>Fritz Balke</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812966</t>
-  </si>
-  <si>
-    <t>BA92200</t>
-  </si>
-  <si>
-    <t>Mayra Monzon</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812965</t>
-  </si>
-  <si>
-    <t>AD88069</t>
-  </si>
-  <si>
-    <t>Craig Tober</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812969</t>
-  </si>
-  <si>
-    <t>EQ75283</t>
-  </si>
-  <si>
-    <t>Kizzie Kohen</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812957</t>
-  </si>
-  <si>
-    <t>XY37806</t>
-  </si>
-  <si>
-    <t>Eloy Sandoz</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98812970</t>
-  </si>
-  <si>
-    <t>RI52540</t>
-  </si>
-  <si>
-    <t>Camilla Escarcega</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b3377d3426500876741838c26f83b332c54f4c0</t>
+  </si>
+  <si>
+    <t>dafc9516e64e98e9bfd379d9e5b26e77f715cfcb</t>
+  </si>
+  <si>
+    <t>7da2444497b885594cd80f066454d5d9e349f78a</t>
+  </si>
+  <si>
+    <t>a40b69d1f585e55121c27bed02b83b1cbe5e42e4</t>
+  </si>
+  <si>
+    <t>1a36fea23eb49713941e5ea93a388a4ace8d1ff0</t>
+  </si>
+  <si>
+    <t>31f022370f7b2c40ad55d1c4b8557d393e9c4270</t>
+  </si>
+  <si>
+    <t>07e7c66179907494b3c4fbcadcc5bfc0c2399550</t>
+  </si>
+  <si>
+    <t>1b9205ee55ce7cf677036eab147579d4f22d14db</t>
+  </si>
+  <si>
+    <t>ff9d18bca9f9df98e7d4a1fbd24257ceaf838c88</t>
+  </si>
+  <si>
+    <t>ce2df4044c200f94c8dcdb14e9a1191085fc912a</t>
+  </si>
+  <si>
+    <t>c641355d0f7fafdd6037fb19303c8363794c6ae3</t>
+  </si>
+  <si>
+    <t>e9ad2458dc3449ffbd6964d0c09261e646be663c</t>
+  </si>
+  <si>
+    <t>34f129c443ddd56762af596fa30ff42aa6a6b149</t>
+  </si>
+  <si>
+    <t>1c514c4689f77b487ebcebb3a092bbbff02c7fef</t>
+  </si>
+  <si>
+    <t>967ecf066922d2a101fbbe41422b3e0b8aad7f33</t>
+  </si>
+  <si>
+    <t>b37d5db053f9ad4f023aa2582630294bce1963e0</t>
+  </si>
+  <si>
+    <t>82084e91cddddb7bd5284eac0b0be9f79ee80dc4</t>
   </si>
 </sst>
 </file>
@@ -561,535 +626,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2">
         <v>98812963</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
         <v>44156</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>98812971</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
         <v>44263</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>98812967</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <v>44895</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>98812964</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>44923</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>98812960</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>44745</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>98812962</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>43902</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>98812958</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>43998</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>98812961</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
         <v>43533</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>98812968</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
         <v>45012</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>98812959</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <v>44081</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>98812956</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
         <v>44441</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>98812972</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
         <v>43778</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>98812966</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>45236</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>98812965</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
         <v>43181</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>98812969</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
         <v>42893</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>98812957</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>44748</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>98812970</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
         <v>42803</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
